--- a/docs/tests/test_all_criteria.xlsx
+++ b/docs/tests/test_all_criteria.xlsx
@@ -9,16 +9,16 @@
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="Criteria Failing, Air Speed 0.1" sheetId="2" r:id="rId2"/>
-    <sheet name="Criterion 2, Air Speed 0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="Criterion 1, Air Speed 0.1" sheetId="4" r:id="rId4"/>
-    <sheet name="Criterion 3, Air Speed 0.1" sheetId="5" r:id="rId5"/>
+    <sheet name="Criterion 1, Air Speed 0.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Criterion 3, Air Speed 0.1" sheetId="4" r:id="rId4"/>
+    <sheet name="Criterion 2, Air Speed 0.1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="59">
   <si>
     <t>JobNo</t>
   </si>
@@ -26,12 +26,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -47,39 +47,39 @@
     <t>/c/e</t>
   </si>
   <si>
-    <t>20220228</t>
+    <t>20220316</t>
+  </si>
+  <si>
+    <t>Criteria Failing, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 1, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 3, Air Speed 0.1</t>
+  </si>
+  <si>
+    <t>Criterion 2, Air Speed 0.1</t>
   </si>
   <si>
     <t>jovyan</t>
   </si>
   <si>
-    <t>Criteria Failing, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 2, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 1, Air Speed 0.1</t>
-  </si>
-  <si>
-    <t>Criterion 3, Air Speed 0.1</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
+    <t>IES Results</t>
+  </si>
+  <si>
+    <t>MF Results</t>
+  </si>
+  <si>
+    <t>IES v MF</t>
+  </si>
+  <si>
     <t>Room Name</t>
   </si>
   <si>
-    <t>IES Results</t>
-  </si>
-  <si>
-    <t>MF Results</t>
-  </si>
-  <si>
-    <t>IES v MF</t>
-  </si>
-  <si>
     <t>A_01_XX_XX_ApartmentSW</t>
   </si>
   <si>
@@ -176,22 +176,25 @@
     <t>1 &amp; 2</t>
   </si>
   <si>
+    <t>Criterion 1 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 1 Relative Change (%)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>Criterion 3 Absolute Change</t>
+  </si>
+  <si>
+    <t>Criterion 3 Relative Change (%)</t>
+  </si>
+  <si>
     <t>Criterion 2 Absolute Change</t>
   </si>
   <si>
     <t>Criterion 2 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 1 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 1 Relative Change (%)</t>
-  </si>
-  <si>
-    <t>Criterion 3 Absolute Change</t>
-  </si>
-  <si>
-    <t>Criterion 3 Relative Change (%)</t>
   </si>
 </sst>
 </file>
@@ -377,22 +380,21 @@
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="JobNo"/>
     <tableColumn id="3" name="Date"/>
-    <tableColumn id="4" name="Author"/>
-    <tableColumn id="5" name="sheet_name"/>
+    <tableColumn id="4" name="sheet_name"/>
+    <tableColumn id="5" name="Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0">
-  <autoFilter ref="A1:E32"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="index"/>
-    <tableColumn id="2" name="Room Name"/>
-    <tableColumn id="3" name="IES Results"/>
-    <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="IES v MF"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Room Name"/>
+    <tableColumn id="2" name="IES Results"/>
+    <tableColumn id="3" name="MF Results"/>
+    <tableColumn id="4" name="IES v MF"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -406,8 +408,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -421,8 +423,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 1 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 1 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,8 +438,8 @@
     <tableColumn id="2" name="Room Name"/>
     <tableColumn id="3" name="IES Results"/>
     <tableColumn id="4" name="MF Results"/>
-    <tableColumn id="5" name="Criterion 3 Absolute Change"/>
-    <tableColumn id="6" name="Criterion 3 Relative Change (%)"/>
+    <tableColumn id="5" name="Criterion 2 Absolute Change"/>
+    <tableColumn id="6" name="Criterion 2 Relative Change (%)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -774,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -788,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -805,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -822,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -839,7 +841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -850,9 +852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="80" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="80" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -863,450 +865,354 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>1</v>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>20</v>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>23</v>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="b">
+      <c r="D32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1336,13 +1242,13 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>52</v>
@@ -1359,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>2.45</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.04999999999999982</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1.999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1379,16 +1285,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>7.79</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.1282051282051255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1399,16 +1305,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>8.09</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0.1234567901234542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1487,16 +1393,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>10.59</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>-0.09433962264150743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1507,16 +1413,16 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26.04</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1538461538461506</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1527,16 +1433,16 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11.57</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.02999999999999936</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.2586206896551669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1547,16 +1453,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>26.3</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>26.34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.1520912547528485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1584,10 +1490,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1604,16 +1510,16 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>40.00000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1641,16 +1547,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>12.9</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>12.91</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.07751937984495957</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1661,16 +1567,16 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>28.31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03533568904592936</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1681,16 +1587,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>13.4</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>13.43</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.02999999999999936</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2238805970149206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1701,16 +1607,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>28.61</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.00999999999999801</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.03496503496502801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1721,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1741,16 +1647,16 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-1.250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1761,16 +1667,16 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>0.35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-12.50000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1781,16 +1687,16 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1801,16 +1707,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>5.6</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>5.58</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-0.01999999999999957</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>-0.3571428571428495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1821,16 +1727,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>17.75</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1841,16 +1747,16 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>5.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.5769230769230818</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1861,16 +1767,16 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>17.7</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.2824858757062187</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1967,19 +1873,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1990,10 +1896,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2010,16 +1916,16 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.282051282051289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2030,16 +1936,16 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-1.234567901234563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2118,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>10.6</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2138,10 +2044,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2158,10 +2064,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2178,16 +2084,16 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>26.3</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>26.4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3802281368821211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2215,10 +2121,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2235,10 +2141,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2272,10 +2178,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2292,10 +2198,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>28.3</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2312,16 +2218,16 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>13.4</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7462686567164152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2332,16 +2238,16 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>28.6</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>28.5</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.3496503496503546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2352,12 +2258,15 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
@@ -2369,10 +2278,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2389,10 +2298,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2409,12 +2318,15 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
     </row>
@@ -2426,10 +2338,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2446,16 +2358,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>17.8</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5649717514124375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2466,10 +2378,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2486,10 +2398,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>17.7</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2592,19 +2504,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2615,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2635,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2655,10 +2567,10 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2743,10 +2655,10 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2763,10 +2675,10 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2783,10 +2695,10 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2803,10 +2715,10 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2840,10 +2752,10 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2860,10 +2772,10 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2897,10 +2809,10 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2917,10 +2829,10 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2937,10 +2849,10 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2957,10 +2869,10 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2997,10 +2909,10 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3017,10 +2929,10 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3057,10 +2969,10 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3077,10 +2989,10 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3097,10 +3009,10 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3117,10 +3029,10 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
